--- a/results/I3_N5_M3_T45_C200_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.76910726525873</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.52910749414056</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.239999771118164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>32.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.7338617375427</v>
+        <v>37.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.72327375283629</v>
+        <v>34.49989205841818</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.57111916510009</v>
+        <v>37.908099007899</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.12249852767911</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000000065</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.13000000000065</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000000066</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000000065</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>179.5750000000015</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>198.1950000000014</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>192.5550000000015</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>202.1200000000015</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>198.4800000000014</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999935</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7349999999998</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2649999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>198.1249999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.6049999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.9049999999998</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>179.5750000000015</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>198.1950000000014</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>192.5550000000015</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>202.1200000000015</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>198.4800000000014</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>185.7349999999998</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>184.2649999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>198.1249999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>195.6049999999998</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>190.9049999999998</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>99.54499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>92.51499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0699999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>90.09499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>102.7799999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.119999885559082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,17 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
